--- a/data/pca/factorExposure/factorExposure_2017-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.009942655766732377</v>
+        <v>0.01133225421342973</v>
       </c>
       <c r="C2">
-        <v>-0.01411839485214259</v>
+        <v>-0.03994152459599618</v>
       </c>
       <c r="D2">
-        <v>0.03678657677692264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03128604624289864</v>
+      </c>
+      <c r="E2">
+        <v>0.05127453463036828</v>
+      </c>
+      <c r="F2">
+        <v>-0.004045534669666838</v>
+      </c>
+      <c r="G2">
+        <v>0.1132895601603288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04488005154920549</v>
+        <v>0.0388667226408512</v>
       </c>
       <c r="C3">
-        <v>0.03229155660295265</v>
+        <v>-0.1002172479784848</v>
       </c>
       <c r="D3">
-        <v>0.1149930058059118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01763563154738967</v>
+      </c>
+      <c r="E3">
+        <v>0.09695419989273542</v>
+      </c>
+      <c r="F3">
+        <v>-0.01945988978373134</v>
+      </c>
+      <c r="G3">
+        <v>0.1296955285667379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03597953535716867</v>
+        <v>0.05501440528589696</v>
       </c>
       <c r="C4">
-        <v>0.003316326622236175</v>
+        <v>-0.06644552261899009</v>
       </c>
       <c r="D4">
-        <v>0.06598169132133076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02549391215949657</v>
+      </c>
+      <c r="E4">
+        <v>0.04139345108431707</v>
+      </c>
+      <c r="F4">
+        <v>-0.003009089188059471</v>
+      </c>
+      <c r="G4">
+        <v>0.09913227954252633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01283095217113642</v>
+        <v>0.03455017572812658</v>
       </c>
       <c r="C6">
-        <v>0.002339909814857006</v>
+        <v>-0.05131277694565118</v>
       </c>
       <c r="D6">
-        <v>0.05647994576739688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01821524875799344</v>
+      </c>
+      <c r="E6">
+        <v>0.0472089635670957</v>
+      </c>
+      <c r="F6">
+        <v>-0.00330694765783162</v>
+      </c>
+      <c r="G6">
+        <v>0.08524184595544976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002001171333571404</v>
+        <v>0.02044579259138892</v>
       </c>
       <c r="C7">
-        <v>-0.002414928725062723</v>
+        <v>-0.03835950373556041</v>
       </c>
       <c r="D7">
-        <v>0.03723829250778131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01482838884380978</v>
+      </c>
+      <c r="E7">
+        <v>0.01840551792167107</v>
+      </c>
+      <c r="F7">
+        <v>0.003414617488293503</v>
+      </c>
+      <c r="G7">
+        <v>0.1265142219934091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001785264299698508</v>
+        <v>0.003777242589438778</v>
       </c>
       <c r="C8">
-        <v>-0.001432142115915125</v>
+        <v>-0.0223268629557227</v>
       </c>
       <c r="D8">
-        <v>-0.0009647440100461918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003954859662983693</v>
+      </c>
+      <c r="E8">
+        <v>0.03201220512407283</v>
+      </c>
+      <c r="F8">
+        <v>-0.001761826324881472</v>
+      </c>
+      <c r="G8">
+        <v>0.0690461007486553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01158007020342056</v>
+        <v>0.03292367361274319</v>
       </c>
       <c r="C9">
-        <v>-0.001306931895954261</v>
+        <v>-0.04722287895514078</v>
       </c>
       <c r="D9">
-        <v>0.0398499721409439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01669439533616757</v>
+      </c>
+      <c r="E9">
+        <v>0.02818705644549202</v>
+      </c>
+      <c r="F9">
+        <v>0.0007174093835993058</v>
+      </c>
+      <c r="G9">
+        <v>0.1029277316294647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1294561596642553</v>
+        <v>0.0994433830478423</v>
       </c>
       <c r="C10">
-        <v>-0.00140353443379293</v>
+        <v>0.1850968862196227</v>
       </c>
       <c r="D10">
-        <v>-0.1719619968790904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01540429635719377</v>
+      </c>
+      <c r="E10">
+        <v>0.0213450087817243</v>
+      </c>
+      <c r="F10">
+        <v>-0.02240463277321187</v>
+      </c>
+      <c r="G10">
+        <v>0.05448527032879531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01826745607419455</v>
+        <v>0.0352727012670461</v>
       </c>
       <c r="C11">
-        <v>0.01713788641199425</v>
+        <v>-0.05216569022174684</v>
       </c>
       <c r="D11">
-        <v>0.04981262099946487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0026494583478134</v>
+      </c>
+      <c r="E11">
+        <v>0.02172242679407034</v>
+      </c>
+      <c r="F11">
+        <v>0.0152779359242641</v>
+      </c>
+      <c r="G11">
+        <v>0.08582309043592401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0204115304693767</v>
+        <v>0.03756050579605038</v>
       </c>
       <c r="C12">
-        <v>0.01117410776253772</v>
+        <v>-0.04718633862500491</v>
       </c>
       <c r="D12">
-        <v>0.04493563434174613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006653587058064299</v>
+      </c>
+      <c r="E12">
+        <v>0.01115095500142253</v>
+      </c>
+      <c r="F12">
+        <v>0.00219547794279435</v>
+      </c>
+      <c r="G12">
+        <v>0.08158742310412166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.006001920444635969</v>
+        <v>0.01285050511516059</v>
       </c>
       <c r="C13">
-        <v>-0.0123071294026465</v>
+        <v>-0.03870241418767886</v>
       </c>
       <c r="D13">
-        <v>0.03609434191068367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02800849308070063</v>
+      </c>
+      <c r="E13">
+        <v>0.05155093608101392</v>
+      </c>
+      <c r="F13">
+        <v>-0.01355854977257163</v>
+      </c>
+      <c r="G13">
+        <v>0.143041336626166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.0008599035496179141</v>
+        <v>0.009775111727432315</v>
       </c>
       <c r="C14">
-        <v>-0.002067570968096425</v>
+        <v>-0.02767199275628467</v>
       </c>
       <c r="D14">
-        <v>0.02244203916771562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01079979565236869</v>
+      </c>
+      <c r="E14">
+        <v>0.0133245507502988</v>
+      </c>
+      <c r="F14">
+        <v>-0.006595476780383723</v>
+      </c>
+      <c r="G14">
+        <v>0.1141908972242078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.01767272205016797</v>
+        <v>0.03395773192846904</v>
       </c>
       <c r="C16">
-        <v>0.01362504852614892</v>
+        <v>-0.04508556095649588</v>
       </c>
       <c r="D16">
-        <v>0.03686334862206692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002195894044246953</v>
+      </c>
+      <c r="E16">
+        <v>0.01784819151906026</v>
+      </c>
+      <c r="F16">
+        <v>-0.004390073594108298</v>
+      </c>
+      <c r="G16">
+        <v>0.09006624745726954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01842163226977207</v>
+        <v>0.02021950206618327</v>
       </c>
       <c r="C19">
-        <v>0.004228424858114149</v>
+        <v>-0.04995429596150575</v>
       </c>
       <c r="D19">
-        <v>0.0506416725549981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02080584307195061</v>
+      </c>
+      <c r="E19">
+        <v>0.08819395768804544</v>
+      </c>
+      <c r="F19">
+        <v>-0.006208136281052105</v>
+      </c>
+      <c r="G19">
+        <v>0.1397132583958218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.003473860378991511</v>
+        <v>0.01500609465845968</v>
       </c>
       <c r="C20">
-        <v>-0.001491409372189726</v>
+        <v>-0.04062549828230671</v>
       </c>
       <c r="D20">
-        <v>0.03551288304882117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01508723687865059</v>
+      </c>
+      <c r="E20">
+        <v>0.04155403240511017</v>
+      </c>
+      <c r="F20">
+        <v>-0.02420320340671153</v>
+      </c>
+      <c r="G20">
+        <v>0.1132958865100082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001191127763582777</v>
+        <v>0.009315810213285735</v>
       </c>
       <c r="C21">
-        <v>-0.007435794460113771</v>
+        <v>-0.03800275471170803</v>
       </c>
       <c r="D21">
-        <v>0.02872442698469974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02021767489426182</v>
+      </c>
+      <c r="E21">
+        <v>0.05165721290867006</v>
+      </c>
+      <c r="F21">
+        <v>-0.01255276639608659</v>
+      </c>
+      <c r="G21">
+        <v>0.1434192342311689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009760952361262794</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006352422721608126</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002204769110842307</v>
+      </c>
+      <c r="E22">
+        <v>0.01799108623452538</v>
+      </c>
+      <c r="F22">
+        <v>0.005499033637680166</v>
+      </c>
+      <c r="G22">
+        <v>0.003597947260860602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009856844931750263</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006319880435689448</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002200531627135821</v>
+      </c>
+      <c r="E23">
+        <v>0.01800167226072719</v>
+      </c>
+      <c r="F23">
+        <v>0.005288906379967106</v>
+      </c>
+      <c r="G23">
+        <v>0.003435542403333491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01054045180376231</v>
+        <v>0.02924956932111447</v>
       </c>
       <c r="C24">
-        <v>0.008318377083789215</v>
+        <v>-0.04883514542971422</v>
       </c>
       <c r="D24">
-        <v>0.0430288968065789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007337304970236434</v>
+      </c>
+      <c r="E24">
+        <v>0.0169283123758786</v>
+      </c>
+      <c r="F24">
+        <v>0.006611784286118791</v>
+      </c>
+      <c r="G24">
+        <v>0.08989382065238467</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.02726687825774312</v>
+        <v>0.04243233385132684</v>
       </c>
       <c r="C25">
-        <v>0.01056843686251422</v>
+        <v>-0.0566860997865779</v>
       </c>
       <c r="D25">
-        <v>0.0549963919010893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0114199884858247</v>
+      </c>
+      <c r="E25">
+        <v>0.008166872436970602</v>
+      </c>
+      <c r="F25">
+        <v>0.005108897853266973</v>
+      </c>
+      <c r="G25">
+        <v>0.09572084302964613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.002654012227266181</v>
+        <v>0.01440847707365762</v>
       </c>
       <c r="C26">
-        <v>-0.0209605043850433</v>
+        <v>-0.01134230574191603</v>
       </c>
       <c r="D26">
-        <v>0.008157528340108806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02430043736024953</v>
+      </c>
+      <c r="E26">
+        <v>0.009270783955360389</v>
+      </c>
+      <c r="F26">
+        <v>-0.005879470739656468</v>
+      </c>
+      <c r="G26">
+        <v>0.08542456809891331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1659436159479642</v>
+        <v>0.1298893639202232</v>
       </c>
       <c r="C28">
-        <v>-0.0113198116145505</v>
+        <v>0.2423026924686724</v>
       </c>
       <c r="D28">
-        <v>-0.1960717818169556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006790706766638148</v>
+      </c>
+      <c r="E28">
+        <v>0.002377876374430105</v>
+      </c>
+      <c r="F28">
+        <v>-0.02091027514375698</v>
+      </c>
+      <c r="G28">
+        <v>0.04689713000945227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006288959857664846</v>
+        <v>0.009181746328894687</v>
       </c>
       <c r="C29">
-        <v>-0.0008614023332655681</v>
+        <v>-0.02347848238607064</v>
       </c>
       <c r="D29">
-        <v>0.01931258141052941</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009658612841976012</v>
+      </c>
+      <c r="E29">
+        <v>0.006014328177020608</v>
+      </c>
+      <c r="F29">
+        <v>-0.01186517785892081</v>
+      </c>
+      <c r="G29">
+        <v>0.1029023653504714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02800761234833612</v>
+        <v>0.03935977634253159</v>
       </c>
       <c r="C30">
-        <v>0.004987646314562944</v>
+        <v>-0.06646390485361606</v>
       </c>
       <c r="D30">
-        <v>0.08936737460627511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03015400422973691</v>
+      </c>
+      <c r="E30">
+        <v>0.07082595143572397</v>
+      </c>
+      <c r="F30">
+        <v>0.02180382445509378</v>
+      </c>
+      <c r="G30">
+        <v>0.1278136180515057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02807930823501852</v>
+        <v>0.05338253079797024</v>
       </c>
       <c r="C31">
-        <v>0.00732100761653322</v>
+        <v>-0.03955513151319574</v>
       </c>
       <c r="D31">
-        <v>0.01723734925015047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003819141506819057</v>
+      </c>
+      <c r="E31">
+        <v>-0.003041923367380061</v>
+      </c>
+      <c r="F31">
+        <v>-0.0357112455292221</v>
+      </c>
+      <c r="G31">
+        <v>0.09763025912102485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003175067176341382</v>
+        <v>0.001877999858422165</v>
       </c>
       <c r="C32">
-        <v>0.01526108980835578</v>
+        <v>-0.02080616718859761</v>
       </c>
       <c r="D32">
-        <v>0.02830048579314661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001767523850511943</v>
+      </c>
+      <c r="E32">
+        <v>0.04749322433653957</v>
+      </c>
+      <c r="F32">
+        <v>0.030402658660797</v>
+      </c>
+      <c r="G32">
+        <v>0.07994934991156299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0145676956470131</v>
+        <v>0.02740817258497675</v>
       </c>
       <c r="C33">
-        <v>0.005116404893509585</v>
+        <v>-0.05026464386145859</v>
       </c>
       <c r="D33">
-        <v>0.05159860522855877</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01703760729562202</v>
+      </c>
+      <c r="E33">
+        <v>0.05569081442386006</v>
+      </c>
+      <c r="F33">
+        <v>0.005956882738353626</v>
+      </c>
+      <c r="G33">
+        <v>0.1597354443133062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.0289637480896587</v>
+        <v>0.04129362152903666</v>
       </c>
       <c r="C34">
-        <v>0.02773599559476718</v>
+        <v>-0.05938196841158999</v>
       </c>
       <c r="D34">
-        <v>0.05267768749170762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004274344330158227</v>
+      </c>
+      <c r="E34">
+        <v>0.01370140823481844</v>
+      </c>
+      <c r="F34">
+        <v>0.01847700294712825</v>
+      </c>
+      <c r="G34">
+        <v>0.08899381900699085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.00612882630746909</v>
+        <v>0.01601701267242663</v>
       </c>
       <c r="C36">
-        <v>-0.009844108066382374</v>
+        <v>-0.009534044885285815</v>
       </c>
       <c r="D36">
-        <v>-0.0004164243141431868</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01296165276771083</v>
+      </c>
+      <c r="E36">
+        <v>0.01112151134756882</v>
+      </c>
+      <c r="F36">
+        <v>-0.009383883284903293</v>
+      </c>
+      <c r="G36">
+        <v>0.09317499743955734</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02253257400798712</v>
+        <v>0.03246902914803835</v>
       </c>
       <c r="C38">
-        <v>0.01914990365168266</v>
+        <v>-0.02894823691533492</v>
       </c>
       <c r="D38">
-        <v>0.01814779355805624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007699720247184852</v>
+      </c>
+      <c r="E38">
+        <v>0.006801776491629599</v>
+      </c>
+      <c r="F38">
+        <v>-0.01713330883310693</v>
+      </c>
+      <c r="G38">
+        <v>0.08690056042921002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006101608047359115</v>
+        <v>0.03571271638131786</v>
       </c>
       <c r="C39">
-        <v>0.01448080722442263</v>
+        <v>-0.07794522476514935</v>
       </c>
       <c r="D39">
-        <v>0.08699086683960722</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01228100116469617</v>
+      </c>
+      <c r="E39">
+        <v>0.03230386775404562</v>
+      </c>
+      <c r="F39">
+        <v>0.01560129480971209</v>
+      </c>
+      <c r="G39">
+        <v>0.09622354071375416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01836367972380703</v>
+        <v>0.01392392216917395</v>
       </c>
       <c r="C40">
-        <v>0.0003407975434242529</v>
+        <v>-0.03742278748513768</v>
       </c>
       <c r="D40">
-        <v>0.02642411639482175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01530554828911484</v>
+      </c>
+      <c r="E40">
+        <v>0.03530885239580606</v>
+      </c>
+      <c r="F40">
+        <v>-0.01570942624680334</v>
+      </c>
+      <c r="G40">
+        <v>0.1235627542061161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01112040423285668</v>
+        <v>0.02042241589734088</v>
       </c>
       <c r="C41">
-        <v>-0.00181567259486873</v>
+        <v>-0.003205871445695198</v>
       </c>
       <c r="D41">
-        <v>-0.004878668623013651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004951983630794248</v>
+      </c>
+      <c r="E41">
+        <v>0.01021460136070347</v>
+      </c>
+      <c r="F41">
+        <v>-0.01479160247649409</v>
+      </c>
+      <c r="G41">
+        <v>0.08962231835745821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01282746186744007</v>
+        <v>0.005251368351423554</v>
       </c>
       <c r="C42">
-        <v>-0.07042886147609739</v>
+        <v>-0.0285850571342879</v>
       </c>
       <c r="D42">
-        <v>0.07866270400081082</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08453663055770419</v>
+      </c>
+      <c r="E42">
+        <v>-0.008334768721862128</v>
+      </c>
+      <c r="F42">
+        <v>-0.03723534738894382</v>
+      </c>
+      <c r="G42">
+        <v>-0.02162834530273735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02416276116095133</v>
+        <v>0.03519867999473748</v>
       </c>
       <c r="C43">
-        <v>0.004063213062954682</v>
+        <v>-0.01776730819523654</v>
       </c>
       <c r="D43">
-        <v>0.004921070140577279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006296258558782357</v>
+      </c>
+      <c r="E43">
+        <v>0.02554600282014982</v>
+      </c>
+      <c r="F43">
+        <v>-0.01133899893579526</v>
+      </c>
+      <c r="G43">
+        <v>0.118681926364216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.005180622751550479</v>
+        <v>0.01299101861500224</v>
       </c>
       <c r="C44">
-        <v>0.01101134825744797</v>
+        <v>-0.05613205655259618</v>
       </c>
       <c r="D44">
-        <v>0.05158225750193387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007698181049188065</v>
+      </c>
+      <c r="E44">
+        <v>0.03197882804264861</v>
+      </c>
+      <c r="F44">
+        <v>-0.01820840874659009</v>
+      </c>
+      <c r="G44">
+        <v>0.1180237672228298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001865184207060839</v>
+        <v>0.008671372465337324</v>
       </c>
       <c r="C46">
-        <v>-0.01101311277649211</v>
+        <v>-0.0158837452605201</v>
       </c>
       <c r="D46">
-        <v>0.001356970336055146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01292344507278629</v>
+      </c>
+      <c r="E46">
+        <v>0.0009676880831475129</v>
+      </c>
+      <c r="F46">
+        <v>-0.01444187409645162</v>
+      </c>
+      <c r="G46">
+        <v>0.1091265500996501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0472490450554387</v>
+        <v>0.07949055291471185</v>
       </c>
       <c r="C47">
-        <v>0.02977120244409593</v>
+        <v>-0.07202510795325699</v>
       </c>
       <c r="D47">
-        <v>0.0566265760795987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004976880112307703</v>
+      </c>
+      <c r="E47">
+        <v>-0.0103747802868984</v>
+      </c>
+      <c r="F47">
+        <v>-0.04704393274506678</v>
+      </c>
+      <c r="G47">
+        <v>0.08615719873478109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00536941507514641</v>
+        <v>0.0194004066338041</v>
       </c>
       <c r="C48">
-        <v>0.0007469137320238433</v>
+        <v>-0.01336418583498176</v>
       </c>
       <c r="D48">
-        <v>0.001048172249558901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002526673897943583</v>
+      </c>
+      <c r="E48">
+        <v>0.005607283310281316</v>
+      </c>
+      <c r="F48">
+        <v>-0.02045954330132483</v>
+      </c>
+      <c r="G48">
+        <v>0.1024632248776632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05044319514116398</v>
+        <v>0.07432802505433091</v>
       </c>
       <c r="C50">
-        <v>0.02729912677153551</v>
+        <v>-0.07346710481848893</v>
       </c>
       <c r="D50">
-        <v>0.0490086192850911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002186971080216844</v>
+      </c>
+      <c r="E50">
+        <v>-0.01158774357954739</v>
+      </c>
+      <c r="F50">
+        <v>-0.04897975430672218</v>
+      </c>
+      <c r="G50">
+        <v>0.09553058793032619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.002978751491189721</v>
+        <v>0.01209866977021398</v>
       </c>
       <c r="C51">
-        <v>0.001937450772571119</v>
+        <v>-0.03668387888938859</v>
       </c>
       <c r="D51">
-        <v>0.03171184671477628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01146901891944492</v>
+      </c>
+      <c r="E51">
+        <v>0.03405987921790272</v>
+      </c>
+      <c r="F51">
+        <v>0.0113068626019959</v>
+      </c>
+      <c r="G51">
+        <v>0.1219547562703557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07080209175485334</v>
+        <v>0.08140559354958753</v>
       </c>
       <c r="C53">
-        <v>0.04011267773347296</v>
+        <v>-0.08384966151387037</v>
       </c>
       <c r="D53">
-        <v>0.07756316491198298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003948049482941065</v>
+      </c>
+      <c r="E53">
+        <v>-0.03242524733338668</v>
+      </c>
+      <c r="F53">
+        <v>-0.05333209914039678</v>
+      </c>
+      <c r="G53">
+        <v>0.08970879829411162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01721055595707073</v>
+        <v>0.03247990013375578</v>
       </c>
       <c r="C54">
-        <v>0.005722715568046644</v>
+        <v>-0.0172932030430593</v>
       </c>
       <c r="D54">
-        <v>-0.005958737591471613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0006415774496301486</v>
+      </c>
+      <c r="E54">
+        <v>0.02021393752803166</v>
+      </c>
+      <c r="F54">
+        <v>-0.01060395211537006</v>
+      </c>
+      <c r="G54">
+        <v>0.1104006789378257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.04464797805476301</v>
+        <v>0.07399718774752322</v>
       </c>
       <c r="C55">
-        <v>0.02974479541290181</v>
+        <v>-0.06767386106915141</v>
       </c>
       <c r="D55">
-        <v>0.0604648658280876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005515351427320418</v>
+      </c>
+      <c r="E55">
+        <v>-0.03111174701716421</v>
+      </c>
+      <c r="F55">
+        <v>-0.05157678196400203</v>
+      </c>
+      <c r="G55">
+        <v>0.06762000481703448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1013772338365829</v>
+        <v>0.135623919630966</v>
       </c>
       <c r="C56">
-        <v>0.06194702634255828</v>
+        <v>-0.1069834056264503</v>
       </c>
       <c r="D56">
-        <v>0.1088488611162836</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01304265588404399</v>
+      </c>
+      <c r="E56">
+        <v>-0.04009623881034637</v>
+      </c>
+      <c r="F56">
+        <v>-0.06450178466630531</v>
+      </c>
+      <c r="G56">
+        <v>0.04836419770775011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01244304896679487</v>
+        <v>0.004101849673575129</v>
       </c>
       <c r="C57">
-        <v>-0.01542950614087142</v>
+        <v>-0.004492967217513175</v>
       </c>
       <c r="D57">
-        <v>0.01752923685263146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02273228161182748</v>
+      </c>
+      <c r="E57">
+        <v>0.02487279418155851</v>
+      </c>
+      <c r="F57">
+        <v>0.0009043912048635877</v>
+      </c>
+      <c r="G57">
+        <v>0.01622908623873868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.02657101387101445</v>
+        <v>0.04331119189736134</v>
       </c>
       <c r="C58">
-        <v>0.03472790270615753</v>
+        <v>-0.04072458375141606</v>
       </c>
       <c r="D58">
-        <v>0.1023021704307403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02909652738754266</v>
+      </c>
+      <c r="E58">
+        <v>0.8065101573960294</v>
+      </c>
+      <c r="F58">
+        <v>-0.4945022274304577</v>
+      </c>
+      <c r="G58">
+        <v>-0.2516616987320671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2044283886205697</v>
+        <v>0.1601329732952347</v>
       </c>
       <c r="C59">
-        <v>0.006336435720584045</v>
+        <v>0.206884446258318</v>
       </c>
       <c r="D59">
-        <v>-0.1889630444089185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01104676799403877</v>
+      </c>
+      <c r="E59">
+        <v>0.02338953123630429</v>
+      </c>
+      <c r="F59">
+        <v>-0.004705641185499417</v>
+      </c>
+      <c r="G59">
+        <v>0.03628533368449965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2964900355631953</v>
+        <v>0.2873742144381953</v>
       </c>
       <c r="C60">
-        <v>0.102414372783846</v>
+        <v>-0.1148661400135268</v>
       </c>
       <c r="D60">
-        <v>0.1662531374082676</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0152623256452711</v>
+      </c>
+      <c r="E60">
+        <v>0.09107723264373395</v>
+      </c>
+      <c r="F60">
+        <v>0.3192513734250095</v>
+      </c>
+      <c r="G60">
+        <v>-0.1695494235818514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01479388562228771</v>
+        <v>0.03928721229258922</v>
       </c>
       <c r="C61">
-        <v>0.01820861661858842</v>
+        <v>-0.06515228279510452</v>
       </c>
       <c r="D61">
-        <v>0.06792476461017154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006314635276431581</v>
+      </c>
+      <c r="E61">
+        <v>0.030974650475264</v>
+      </c>
+      <c r="F61">
+        <v>0.01029688265137456</v>
+      </c>
+      <c r="G61">
+        <v>0.09661973572840563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007367785304903558</v>
+        <v>0.0146804130448195</v>
       </c>
       <c r="C63">
-        <v>0.001905705942361681</v>
+        <v>-0.02992241045267972</v>
       </c>
       <c r="D63">
-        <v>0.030489700989811</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008753345046175545</v>
+      </c>
+      <c r="E63">
+        <v>0.005483954426668366</v>
+      </c>
+      <c r="F63">
+        <v>-0.0149021419390963</v>
+      </c>
+      <c r="G63">
+        <v>0.09241232323613953</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.0336741231005267</v>
+        <v>0.0497153683388166</v>
       </c>
       <c r="C64">
-        <v>0.01326670417281474</v>
+        <v>-0.04646025734658677</v>
       </c>
       <c r="D64">
-        <v>0.03763372076598847</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006052255943098253</v>
+      </c>
+      <c r="E64">
+        <v>0.006114497788933992</v>
+      </c>
+      <c r="F64">
+        <v>0.006986638173716316</v>
+      </c>
+      <c r="G64">
+        <v>0.09985679312403346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.05898793574115216</v>
+        <v>0.07345226615018666</v>
       </c>
       <c r="C65">
-        <v>0.02195308165215652</v>
+        <v>-0.05991353196617022</v>
       </c>
       <c r="D65">
-        <v>0.09049837362686822</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01753741912335716</v>
+      </c>
+      <c r="E65">
+        <v>0.0493700961841034</v>
+      </c>
+      <c r="F65">
+        <v>0.01161185642255938</v>
+      </c>
+      <c r="G65">
+        <v>0.04056662039857185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0165006523414841</v>
+        <v>0.04784508221763398</v>
       </c>
       <c r="C66">
-        <v>0.0292855852215943</v>
+        <v>-0.106034741842256</v>
       </c>
       <c r="D66">
-        <v>0.131938073904393</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0130397352594859</v>
+      </c>
+      <c r="E66">
+        <v>0.05303516331918497</v>
+      </c>
+      <c r="F66">
+        <v>0.02505944193957817</v>
+      </c>
+      <c r="G66">
+        <v>0.1035127362838482</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04668948412028474</v>
+        <v>0.05582895387664284</v>
       </c>
       <c r="C67">
-        <v>0.02529040208292213</v>
+        <v>-0.03470195350385234</v>
       </c>
       <c r="D67">
-        <v>0.03130862044766652</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006283822728718707</v>
+      </c>
+      <c r="E67">
+        <v>-0.004361865834508838</v>
+      </c>
+      <c r="F67">
+        <v>-0.01260507920182203</v>
+      </c>
+      <c r="G67">
+        <v>0.07297386321191882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1959480781477329</v>
+        <v>0.1587860892544601</v>
       </c>
       <c r="C68">
-        <v>-0.02639957327192195</v>
+        <v>0.2699608461485379</v>
       </c>
       <c r="D68">
-        <v>-0.227885195595838</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004958091551681631</v>
+      </c>
+      <c r="E68">
+        <v>-0.001447500013632396</v>
+      </c>
+      <c r="F68">
+        <v>-0.04459425431556253</v>
+      </c>
+      <c r="G68">
+        <v>0.02079413154401896</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05353146657660493</v>
+        <v>0.08205866714135487</v>
       </c>
       <c r="C69">
-        <v>0.03458192822149752</v>
+        <v>-0.07430697480404719</v>
       </c>
       <c r="D69">
-        <v>0.0534683185516636</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008970956615868443</v>
+      </c>
+      <c r="E69">
+        <v>-0.02354201391255124</v>
+      </c>
+      <c r="F69">
+        <v>-0.02773744513723212</v>
+      </c>
+      <c r="G69">
+        <v>0.09762730752399303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1745946442166524</v>
+        <v>0.1454563809926395</v>
       </c>
       <c r="C71">
-        <v>-0.01080085053916471</v>
+        <v>0.2294827969677127</v>
       </c>
       <c r="D71">
-        <v>-0.189254610525971</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003115571075683761</v>
+      </c>
+      <c r="E71">
+        <v>0.03050434175522987</v>
+      </c>
+      <c r="F71">
+        <v>-0.02655317615636025</v>
+      </c>
+      <c r="G71">
+        <v>0.06586921605091946</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.05951346562259139</v>
+        <v>0.08727430118691959</v>
       </c>
       <c r="C72">
-        <v>0.04286905367069171</v>
+        <v>-0.06902710549592217</v>
       </c>
       <c r="D72">
-        <v>0.07432830689507991</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008200565553898314</v>
+      </c>
+      <c r="E72">
+        <v>-0.0041674919616261</v>
+      </c>
+      <c r="F72">
+        <v>0.03398656051207225</v>
+      </c>
+      <c r="G72">
+        <v>0.08077739803877622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3724300651780812</v>
+        <v>0.3710865233405057</v>
       </c>
       <c r="C73">
-        <v>0.1358257537854078</v>
+        <v>-0.1218932768429411</v>
       </c>
       <c r="D73">
-        <v>0.2485980387698944</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02748359798590256</v>
+      </c>
+      <c r="E73">
+        <v>0.2208438698779855</v>
+      </c>
+      <c r="F73">
+        <v>0.5453797761301759</v>
+      </c>
+      <c r="G73">
+        <v>-0.3200608173635722</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08686584051529725</v>
+        <v>0.1047343495805441</v>
       </c>
       <c r="C74">
-        <v>0.06064995187200961</v>
+        <v>-0.1091449916420071</v>
       </c>
       <c r="D74">
-        <v>0.1209858264645698</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009462001793066756</v>
+      </c>
+      <c r="E74">
+        <v>-0.0141022056178069</v>
+      </c>
+      <c r="F74">
+        <v>-0.05785118318072588</v>
+      </c>
+      <c r="G74">
+        <v>0.07246227799472647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.197369594776205</v>
+        <v>0.2465164957472962</v>
       </c>
       <c r="C75">
-        <v>0.1110735338116231</v>
+        <v>-0.1524140900904605</v>
       </c>
       <c r="D75">
-        <v>0.1727214388162128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03226261451076301</v>
+      </c>
+      <c r="E75">
+        <v>-0.101165481968244</v>
+      </c>
+      <c r="F75">
+        <v>-0.1445542850868831</v>
+      </c>
+      <c r="G75">
+        <v>-0.005024271577465622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.09882339293817566</v>
+        <v>0.1152187593494422</v>
       </c>
       <c r="C76">
-        <v>0.07103684958220192</v>
+        <v>-0.1103411716636798</v>
       </c>
       <c r="D76">
-        <v>0.1216831794199055</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01824154560956589</v>
+      </c>
+      <c r="E76">
+        <v>-0.04411868253500816</v>
+      </c>
+      <c r="F76">
+        <v>-0.08737954501061061</v>
+      </c>
+      <c r="G76">
+        <v>0.05715822623398675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.03553505473643202</v>
+        <v>0.07125552193824547</v>
       </c>
       <c r="C77">
-        <v>0.01869189702731392</v>
+        <v>-0.05725168567001468</v>
       </c>
       <c r="D77">
-        <v>0.07092773864033342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01057745739530421</v>
+      </c>
+      <c r="E77">
+        <v>0.05323807434849002</v>
+      </c>
+      <c r="F77">
+        <v>-0.003089498028994196</v>
+      </c>
+      <c r="G77">
+        <v>0.07158568468172993</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.02799803310999599</v>
+        <v>0.0417092574171464</v>
       </c>
       <c r="C78">
-        <v>0.01802499579812553</v>
+        <v>-0.0519201395876243</v>
       </c>
       <c r="D78">
-        <v>0.05826629822041525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.007341319551027952</v>
+      </c>
+      <c r="E78">
+        <v>0.04313736012657698</v>
+      </c>
+      <c r="F78">
+        <v>0.03076480020014562</v>
+      </c>
+      <c r="G78">
+        <v>0.1042304116590251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001535180192338959</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0008665561976842612</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0005701000741729685</v>
+      </c>
+      <c r="E79">
+        <v>0.006275398539741401</v>
+      </c>
+      <c r="F79">
+        <v>6.06358803421892e-05</v>
+      </c>
+      <c r="G79">
+        <v>0.005359396433579033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04349667774580413</v>
+        <v>0.0418319199723494</v>
       </c>
       <c r="C80">
-        <v>0.0174010579967595</v>
+        <v>-0.05396064315827824</v>
       </c>
       <c r="D80">
-        <v>0.07004968067667243</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0140052438324536</v>
+      </c>
+      <c r="E80">
+        <v>0.03150243315305526</v>
+      </c>
+      <c r="F80">
+        <v>-0.001742217935099349</v>
+      </c>
+      <c r="G80">
+        <v>0.05368128288618085</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1073349211464395</v>
+        <v>0.1383594433594829</v>
       </c>
       <c r="C81">
-        <v>0.05883770932748317</v>
+        <v>-0.0957863781922326</v>
       </c>
       <c r="D81">
-        <v>0.08851450888685522</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01576349286411697</v>
+      </c>
+      <c r="E81">
+        <v>-0.06029194268063365</v>
+      </c>
+      <c r="F81">
+        <v>-0.1121441394857273</v>
+      </c>
+      <c r="G81">
+        <v>0.02520400039088436</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.02621319677682948</v>
+        <v>0.1479231411613698</v>
       </c>
       <c r="C82">
-        <v>0.01259251685059401</v>
+        <v>-0.08932885556626348</v>
       </c>
       <c r="D82">
-        <v>0.02136945265382731</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01343368582598282</v>
+      </c>
+      <c r="E82">
+        <v>-0.1295494029522455</v>
+      </c>
+      <c r="F82">
+        <v>-0.0397232738900227</v>
+      </c>
+      <c r="G82">
+        <v>0.06235409083607039</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01937668273701401</v>
+        <v>0.03402049601942946</v>
       </c>
       <c r="C83">
-        <v>0.006148735652613903</v>
+        <v>-0.03265009201288006</v>
       </c>
       <c r="D83">
-        <v>0.02218217673647706</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006924098949779199</v>
+      </c>
+      <c r="E83">
+        <v>0.03517164276653532</v>
+      </c>
+      <c r="F83">
+        <v>0.0313946789638602</v>
+      </c>
+      <c r="G83">
+        <v>0.05673958922914273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1966303783745866</v>
+        <v>0.2083685462258368</v>
       </c>
       <c r="C85">
-        <v>0.1026000416961398</v>
+        <v>-0.1455881436825943</v>
       </c>
       <c r="D85">
-        <v>0.1879134194102623</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01778517637099127</v>
+      </c>
+      <c r="E85">
+        <v>-0.1150286909424845</v>
+      </c>
+      <c r="F85">
+        <v>-0.08007961394425847</v>
+      </c>
+      <c r="G85">
+        <v>-0.04585724438059162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01438615926492677</v>
+        <v>0.01347143201679924</v>
       </c>
       <c r="C86">
-        <v>0.005135606677613157</v>
+        <v>-0.02769279631501332</v>
       </c>
       <c r="D86">
-        <v>0.02903164029941229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01270628133420625</v>
+      </c>
+      <c r="E86">
+        <v>0.06542361516699043</v>
+      </c>
+      <c r="F86">
+        <v>0.02287096425608055</v>
+      </c>
+      <c r="G86">
+        <v>0.1820106662797041</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006874069901441919</v>
+        <v>0.02142208580836971</v>
       </c>
       <c r="C87">
-        <v>-0.002978712838413208</v>
+        <v>-0.01670907802816707</v>
       </c>
       <c r="D87">
-        <v>0.0306505843669055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01318928292552415</v>
+      </c>
+      <c r="E87">
+        <v>0.1003302433425971</v>
+      </c>
+      <c r="F87">
+        <v>-0.01812988869551954</v>
+      </c>
+      <c r="G87">
+        <v>0.122539761506076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.0658639742184962</v>
+        <v>0.0908773739962299</v>
       </c>
       <c r="C88">
-        <v>0.00806734200408437</v>
+        <v>-0.07144172583538204</v>
       </c>
       <c r="D88">
-        <v>0.06172953109317691</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02246012435537182</v>
+      </c>
+      <c r="E88">
+        <v>-0.002784409662764169</v>
+      </c>
+      <c r="F88">
+        <v>-0.02073290926219236</v>
+      </c>
+      <c r="G88">
+        <v>0.102343653767351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2989151371165716</v>
+        <v>0.2338700140930834</v>
       </c>
       <c r="C89">
-        <v>-0.02417315160962396</v>
+        <v>0.3660202129941539</v>
       </c>
       <c r="D89">
-        <v>-0.3219737407600298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0002982069361339604</v>
+      </c>
+      <c r="E89">
+        <v>-0.02418516481741794</v>
+      </c>
+      <c r="F89">
+        <v>-0.01953055362627724</v>
+      </c>
+      <c r="G89">
+        <v>0.07951194452839391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2543144526374108</v>
+        <v>0.2119236783728916</v>
       </c>
       <c r="C90">
-        <v>-0.02144576368381704</v>
+        <v>0.3160979397843939</v>
       </c>
       <c r="D90">
-        <v>-0.2923751384032798</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004794514053531003</v>
+      </c>
+      <c r="E90">
+        <v>-0.008741029133887298</v>
+      </c>
+      <c r="F90">
+        <v>-0.04887795940633916</v>
+      </c>
+      <c r="G90">
+        <v>0.05019758388724909</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1573069219235488</v>
+        <v>0.1848215609797994</v>
       </c>
       <c r="C91">
-        <v>0.08389948357541055</v>
+        <v>-0.1365272177425179</v>
       </c>
       <c r="D91">
-        <v>0.1128526681200329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0231665086725446</v>
+      </c>
+      <c r="E91">
+        <v>-0.08378799918489582</v>
+      </c>
+      <c r="F91">
+        <v>-0.1129766241443619</v>
+      </c>
+      <c r="G91">
+        <v>0.03314932187395666</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2360173672489492</v>
+        <v>0.1992956329580522</v>
       </c>
       <c r="C92">
-        <v>0.02819002573409113</v>
+        <v>0.2574752825600051</v>
       </c>
       <c r="D92">
-        <v>-0.2258633668213669</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03837785567667387</v>
+      </c>
+      <c r="E92">
+        <v>0.02232107963530469</v>
+      </c>
+      <c r="F92">
+        <v>-0.0566633933980521</v>
+      </c>
+      <c r="G92">
+        <v>0.09270707433524275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2740764688870831</v>
+        <v>0.235024356977581</v>
       </c>
       <c r="C93">
-        <v>-0.003062882481723112</v>
+        <v>0.3082456884738378</v>
       </c>
       <c r="D93">
-        <v>-0.2643170904598627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01084599407757386</v>
+      </c>
+      <c r="E93">
+        <v>0.003995384914378958</v>
+      </c>
+      <c r="F93">
+        <v>-0.03850523805721284</v>
+      </c>
+      <c r="G93">
+        <v>0.06012287684757794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2192649404135117</v>
+        <v>0.3211823540675098</v>
       </c>
       <c r="C94">
-        <v>0.09544201510856246</v>
+        <v>-0.1921610885613503</v>
       </c>
       <c r="D94">
-        <v>0.1755794540478194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02563454051832378</v>
+      </c>
+      <c r="E94">
+        <v>-0.3436983064775729</v>
+      </c>
+      <c r="F94">
+        <v>-0.4239591136065435</v>
+      </c>
+      <c r="G94">
+        <v>-0.3890993404776073</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05961156131560488</v>
+        <v>0.09364938149113589</v>
       </c>
       <c r="C95">
-        <v>0.057891679789384</v>
+        <v>-0.08125681561798406</v>
       </c>
       <c r="D95">
-        <v>0.1387333653610039</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009663331811586831</v>
+      </c>
+      <c r="E95">
+        <v>0.1039199587099952</v>
+      </c>
+      <c r="F95">
+        <v>0.1582073151946624</v>
+      </c>
+      <c r="G95">
+        <v>0.0557709025417733</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.181734868428301</v>
+        <v>0.1899816665917994</v>
       </c>
       <c r="C98">
-        <v>0.08268215928438243</v>
+        <v>-0.04939569399816541</v>
       </c>
       <c r="D98">
-        <v>0.08671234109490258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0100738842601717</v>
+      </c>
+      <c r="E98">
+        <v>0.1276421464692895</v>
+      </c>
+      <c r="F98">
+        <v>0.2097038334438757</v>
+      </c>
+      <c r="G98">
+        <v>-0.04045515200368454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005977573331880926</v>
+        <v>0.0090263818121892</v>
       </c>
       <c r="C101">
-        <v>-0.0007297713036503127</v>
+        <v>-0.02335443636086991</v>
       </c>
       <c r="D101">
-        <v>0.0195193754369573</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009478796896741193</v>
+      </c>
+      <c r="E101">
+        <v>0.005581289305304402</v>
+      </c>
+      <c r="F101">
+        <v>-0.01276199609109387</v>
+      </c>
+      <c r="G101">
+        <v>0.1025325481632827</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.09656059115942718</v>
+        <v>0.1170975625215835</v>
       </c>
       <c r="C102">
-        <v>0.04137701811755803</v>
+        <v>-0.0859288056345808</v>
       </c>
       <c r="D102">
-        <v>0.09057677653075677</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0005598238525585433</v>
+      </c>
+      <c r="E102">
+        <v>-0.04106561115409608</v>
+      </c>
+      <c r="F102">
+        <v>-0.02405785711565687</v>
+      </c>
+      <c r="G102">
+        <v>0.01943510347006672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.2263684877323905</v>
+        <v>0.02109760701078874</v>
       </c>
       <c r="C104">
-        <v>-0.9376364492352879</v>
+        <v>0.02941509566859472</v>
       </c>
       <c r="D104">
-        <v>0.2285578021101277</v>
+        <v>-0.9871580302569529</v>
+      </c>
+      <c r="E104">
+        <v>-0.07099426529896799</v>
+      </c>
+      <c r="F104">
+        <v>-0.02658837151208449</v>
+      </c>
+      <c r="G104">
+        <v>-0.03878165988624165</v>
       </c>
     </row>
   </sheetData>
